--- a/VersionRecords/Version 6.0.7 20170516/版本Bug和特性计划及评审表v6.0.7_马丁组.xlsx
+++ b/VersionRecords/Version 6.0.7 20170516/版本Bug和特性计划及评审表v6.0.7_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="-2440" windowWidth="33500" windowHeight="18540"/>
+    <workbookView xWindow="2160" yWindow="440" windowWidth="33500" windowHeight="17560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本6.0.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -397,6 +397,63 @@
   </si>
   <si>
     <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <rPh sb="0" eb="1">
+      <t>ma'ding'zu</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0.7</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器CA配置</t>
+    <rPh sb="0" eb="1">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <rPh sb="0" eb="1">
+      <t>da'yu</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ca.mid=e6878a05150240c2a21b3a1d2d76685d</t>
+  </si>
+  <si>
+    <t>sysconfig.ca.primaryKey=MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAM531utQyY1Rz4aQ8ExivxS//lcwAth6mDzbU+9SoKS9NHxHsfdjlGWz4ZYp4BJxFXqS+hftghLSghj+XaWQjBKFFNzF2b0h2RnNpF1lKQq+YvkamGjWS/qAevfacKO8Itava6g2O63H5jIJgv99jPkQXnurmBWDr29Y5Chd/8aVAgMBAAECgYEArOj2B4pX0U9TcgnOBNqp1hHYSmI979fzyPuRtprHSE/gNbjBVUKDFA1qfhzBuBAWgdm3MvTIe0TqiU31VWPRuWsPXGbP37EWBYgdRrySxfn60P05a8KB6bVX9wYLL7hu5raH4cQUmYlQmbDyHNG5mTW9r/nHm7Vc8gsNKUzJIYECQQD0GAcN6GWv1+KncNj0ZpkxSobCdtXdSW3cSrWR+jY9RVFO8d1NqKUfgUI+9hA0z+DvnRNOKGGmoTlZLKfvUDBhAkEA2In70gPPUpjBblhHAfiDosMaqPFfko0Ec7WWDvgwiPOH+Q0u3CM7fV2RKzDnj5GYZjPk6d73lthvMUm6/17StQJAQIrN6raFlM5/xwiGxXEPlsH/ChKEEEQnQXWbtyKzDtZyXm6DttId/0udaaqEtII3FwSwoxz4XSgKUvME4LmSYQJAVH+T2uJNtueRI+Qi4Wv+wjbsYly+dMu+nwCPLAxBtE+EEfXJAXJmNoearIYK9oVUOR2rCHBPoXeX/F3PMPPpuQJATJQqWTZ6K3EIRH766hZC64KS0odxLvSvQIbPl1ronj7boxfV2sPl2en8mrh2xrvW4gIeuokqWz4Ur/wdz2GKnw==</t>
+  </si>
+  <si>
+    <t>sysconfig.ca.host=https://www.bestsign.cn</t>
+  </si>
+  <si>
+    <t>有定时器配置</t>
+    <rPh sb="0" eb="1">
+      <t>you'ding'shi'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -852,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1171,24 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,22 +1216,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1819,7 +1903,7 @@
       <c r="R3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="96" t="s">
+      <c r="S3" s="87" t="s">
         <v>85</v>
       </c>
       <c r="T3" s="56"/>
@@ -5914,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5935,7 +6019,7 @@
     <col min="15" max="15" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="18" max="18" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -5995,15 +6079,15 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="89" t="s">
         <v>88</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -6018,29 +6102,31 @@
       <c r="I2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="90" t="s">
         <v>93</v>
       </c>
       <c r="K2" s="42"/>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="91" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6109,19 +6195,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6159,8 +6245,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6172,8 +6258,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6185,8 +6271,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6198,8 +6284,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6211,8 +6297,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6224,8 +6310,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6237,8 +6323,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6250,8 +6336,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6312,36 +6398,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6626,36 +6712,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6921,7 +7007,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M4" sqref="M4:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6940,36 +7026,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7013,64 +7099,90 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+      <c r="A4" s="102">
+        <v>1</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="108"/>
+    </row>
+    <row r="5" spans="1:13" ht="256" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -7208,22 +7320,31 @@
       <c r="M16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
     <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F8:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,36 +7377,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
